--- a/output/mysiadlo/2020/sheets/year_2020.xlsx
+++ b/output/mysiadlo/2020/sheets/year_2020.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>58.36774193548386</v>
+        <v>58.86585318072439</v>
       </c>
       <c r="C2" t="n">
-        <v>51.24838709677418</v>
+        <v>51.44684579486793</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>55.77241379310346</v>
+        <v>57.22755361515128</v>
       </c>
       <c r="C3" t="n">
-        <v>47.62413793103448</v>
+        <v>51.70922332006334</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>47.12580645161291</v>
+        <v>53.46445997808057</v>
       </c>
       <c r="C4" t="n">
-        <v>38.91935483870968</v>
+        <v>49.28094907474301</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35.94</v>
+        <v>44.40930723623278</v>
       </c>
       <c r="C5" t="n">
-        <v>41.05333333333333</v>
+        <v>45.95705992098412</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>46.54838709677419</v>
+        <v>47.50013192083053</v>
       </c>
       <c r="C6" t="n">
-        <v>36.69354838709678</v>
+        <v>46.41216340218363</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>48.68666666666667</v>
+        <v>49.21443045226017</v>
       </c>
       <c r="C7" t="n">
-        <v>39.77999999999999</v>
+        <v>45.22336416341115</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>53.05806451612903</v>
+        <v>53.55768442977514</v>
       </c>
       <c r="C8" t="n">
-        <v>47.80322580645161</v>
+        <v>48.78766407563701</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>52.49032258064516</v>
+        <v>53.77947594150197</v>
       </c>
       <c r="C9" t="n">
-        <v>46.90967741935484</v>
+        <v>49.26831107724205</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>51.33333333333334</v>
+        <v>53.09595194508204</v>
       </c>
       <c r="C10" t="n">
-        <v>46.41333333333333</v>
+        <v>47.81126223370692</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>50.88387096774193</v>
+        <v>52.69299492397196</v>
       </c>
       <c r="C11" t="n">
-        <v>44.50000000000001</v>
+        <v>46.01633822194611</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>49.58666666666667</v>
+        <v>51.15627210905254</v>
       </c>
       <c r="C12" t="n">
-        <v>43.74333333333333</v>
+        <v>45.49986386567022</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.12258064516129</v>
+        <v>48.5986876151855</v>
       </c>
       <c r="C13" t="n">
-        <v>38.39354838709679</v>
+        <v>43.32228828835322</v>
       </c>
     </row>
   </sheetData>
